--- a/hap-core/src/main/resources/script/db/data/core-init-data.xlsx
+++ b/hap-core/src/main/resources/script/db/data/core-init-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" tabRatio="500" firstSheet="5" activeTab="11"/>
+    <workbookView windowWidth="28800" windowHeight="12465" tabRatio="500" firstSheet="4" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="601">
   <si>
     <r>
       <rPr>
@@ -2119,7 +2119,7 @@
     <t>/hap-core/member-role</t>
   </si>
   <si>
-    <t>平台角色分配</t>
+    <t>角色分配</t>
   </si>
   <si>
     <t>/hap-core/menu-setting</t>
@@ -2355,9 +2355,6 @@
     <t>MEMBER_ROLE</t>
   </si>
   <si>
-    <t>角色分配</t>
-  </si>
-  <si>
     <t>Role Assignment</t>
   </si>
   <si>
@@ -2592,19 +2589,31 @@
     <t>outbound-dataset.queries</t>
   </si>
   <si>
+    <t>menu.menuConfig</t>
+  </si>
+  <si>
+    <t>permission.queryByRoleIds</t>
+  </si>
+  <si>
     <t>choerodon-role.pagedSearch</t>
   </si>
   <si>
-    <t>menu.menuConfig</t>
+    <t>choerodon-role.queryWithPermissions</t>
+  </si>
+  <si>
+    <t>choerodon-role.create</t>
+  </si>
+  <si>
+    <t>choerodon-role.update</t>
+  </si>
+  <si>
+    <t>choerodon-role.enableRole</t>
+  </si>
+  <si>
+    <t>choerodon-role.disableRole</t>
   </si>
   <si>
     <t>choerodon-role.check</t>
-  </si>
-  <si>
-    <t>choerodon-role.create</t>
-  </si>
-  <si>
-    <t>permission.queryByRoleIds</t>
   </si>
   <si>
     <t>role-member.pagingQueryUsersWithRoles</t>
@@ -3694,25 +3703,16 @@
   <si>
     <t>Menu doesn't exist</t>
   </si>
-  <si>
-    <t>error.role.not.allow.to.be.update</t>
-  </si>
-  <si>
-    <t>内置角色不允许被更新</t>
-  </si>
-  <si>
-    <t>Built-in roles are not allowed to be updated</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$-804]yyyy\-m\-d"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="178" formatCode="yyyy\-m\-d"/>
@@ -3883,37 +3883,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3927,15 +3918,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3965,16 +3950,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3996,6 +3973,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -4007,13 +4014,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4082,7 +4082,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4094,13 +4136,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4112,13 +4160,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4130,13 +4172,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4148,49 +4202,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4208,19 +4226,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4232,19 +4238,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4256,13 +4256,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4372,23 +4372,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4408,17 +4402,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4432,13 +4422,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4458,159 +4452,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="33" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="32" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
@@ -5418,19 +5418,19 @@
     </row>
     <row r="7" ht="15.75" spans="4:8">
       <c r="D7" s="8" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="1:8">
@@ -5438,19 +5438,19 @@
         <v>42873</v>
       </c>
       <c r="B8" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>96</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="5:5">
@@ -5458,16 +5458,16 @@
     </row>
     <row r="16" ht="15.75" spans="4:8">
       <c r="D16" s="8" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>54</v>
@@ -5486,7 +5486,7 @@
         <v>67</v>
       </c>
       <c r="H17" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
     <row r="18" ht="15.75" spans="5:8">
@@ -5498,10 +5498,10 @@
         <v>*</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="H18" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="19" ht="15.75" spans="5:8">
@@ -5513,10 +5513,10 @@
         <v>*</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="H19" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="20" ht="15.75" spans="5:8">
@@ -5528,10 +5528,10 @@
         <v>*</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="H20" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="21" ht="15.75" spans="5:8">
@@ -5543,10 +5543,10 @@
         <v>*</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="H21" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
     </row>
     <row r="22" ht="15.75" spans="5:8">
@@ -5558,30 +5558,30 @@
         <v>*</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="H22" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="26" ht="15.75" spans="4:9">
       <c r="D26" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>54</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="27" ht="15.75" spans="5:9">
@@ -5589,17 +5589,17 @@
         <v>96</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="G27" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="H27" s="34" t="str">
         <f>$E$8</f>
         <v>*</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="28" ht="15.75" spans="5:9">
@@ -5607,37 +5607,37 @@
         <v>96</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="G28" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="H28" s="34" t="str">
         <f>$E$8</f>
         <v>*</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="32" ht="15.75" spans="4:9">
       <c r="D32" s="8" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="H32" s="8" t="s">
         <v>54</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="33" ht="17.25" spans="5:9">
@@ -5649,13 +5649,13 @@
         <v>*</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="34" ht="17.25" spans="5:9">
@@ -5667,13 +5667,13 @@
         <v>*</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="35" ht="17.25" spans="5:9">
@@ -5685,13 +5685,13 @@
         <v>*</v>
       </c>
       <c r="G35" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="H35" s="14" t="s">
         <v>483</v>
       </c>
-      <c r="H35" s="14" t="s">
-        <v>480</v>
-      </c>
       <c r="I35" s="12" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="36" ht="17.25" spans="5:9">
@@ -5703,33 +5703,33 @@
         <v>*</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="38" ht="15.75" spans="4:9">
       <c r="D38" s="8" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="39" ht="15.75" spans="5:9">
@@ -5741,13 +5741,13 @@
         <v>*</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="I39" s="20" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
     </row>
     <row r="40" ht="15.75" spans="5:9">
@@ -5759,13 +5759,13 @@
         <v>*</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="I40" s="20" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="41" ht="15.75" spans="5:9">
@@ -5777,13 +5777,13 @@
         <v>*</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="I41" s="20" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
     </row>
     <row r="42" ht="15.75" spans="5:9">
@@ -5795,45 +5795,45 @@
         <v>*</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="I42" s="20" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="46" ht="15.75" spans="4:14">
       <c r="D46" s="8" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="J46" s="8" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="L46" s="8" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="M46" s="8" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="N46" s="8"/>
     </row>
@@ -5859,13 +5859,13 @@
         <v>6</v>
       </c>
       <c r="K47" s="12" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="L47" s="12" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="M47" s="12" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="48" ht="15.75" spans="5:13">
@@ -5890,13 +5890,13 @@
         <v>6</v>
       </c>
       <c r="K48" s="12" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="L48" s="12" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="M48" s="12" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="49" ht="15.75" spans="5:13">
@@ -5921,13 +5921,13 @@
         <v>120</v>
       </c>
       <c r="K49" s="12" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="L49" s="12" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="M49" s="12" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="50" ht="15.75" spans="5:13">
@@ -5952,13 +5952,13 @@
         <v>120</v>
       </c>
       <c r="K50" s="12" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="L50" s="12" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="M50" s="12" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="51" ht="15.75" spans="5:13">
@@ -5983,13 +5983,13 @@
         <v>120</v>
       </c>
       <c r="K51" s="12" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="L51" s="12" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="M51" s="12" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>
@@ -6045,28 +6045,28 @@
     </row>
     <row r="7" ht="15.75" spans="4:13">
       <c r="D7" s="8" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>184</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
@@ -6076,22 +6076,22 @@
         <v>96</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="H8" s="20">
         <v>0</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="M8" s="12"/>
     </row>
@@ -6100,22 +6100,22 @@
         <v>96</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="H9" s="20">
         <v>0</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="M9" s="12"/>
     </row>
@@ -6124,22 +6124,22 @@
         <v>96</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="H10" s="20">
         <v>0</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="J10" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="M10" s="12"/>
     </row>
@@ -6148,22 +6148,22 @@
         <v>96</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="H11" s="20">
         <v>0</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="J11" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="M11" s="12"/>
     </row>
@@ -6180,7 +6180,7 @@
   <dimension ref="A1:J1738"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -6225,7 +6225,7 @@
     </row>
     <row r="5" customFormat="1" spans="4:4">
       <c r="D5" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
     </row>
     <row r="6" customFormat="1"/>
@@ -6237,22 +6237,22 @@
         <v>48</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>54</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="8" customFormat="1" ht="15.75" spans="4:9">
@@ -6261,16 +6261,16 @@
         <v>96</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="9" customFormat="1" ht="15.75" spans="4:9">
@@ -6279,16 +6279,16 @@
         <v>96</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="15.75" spans="4:9">
@@ -6297,16 +6297,16 @@
         <v>96</v>
       </c>
       <c r="F10" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="I10" s="14" t="s">
         <v>538</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>533</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>539</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="11" customFormat="1" ht="15.75" spans="4:9">
@@ -6315,16 +6315,16 @@
         <v>96</v>
       </c>
       <c r="F11" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="I11" s="14" t="s">
         <v>538</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>540</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="15.75" spans="4:9">
@@ -6333,16 +6333,16 @@
         <v>96</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="13" customFormat="1" ht="15.75" spans="4:9">
@@ -6351,16 +6351,16 @@
         <v>96</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="14" customFormat="1" ht="15.75" spans="4:9">
@@ -6369,16 +6369,16 @@
         <v>96</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="15" customFormat="1" ht="15.75" spans="4:9">
@@ -6387,16 +6387,16 @@
         <v>96</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="16" customFormat="1" ht="15.75" spans="4:9">
@@ -6405,16 +6405,16 @@
         <v>96</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="17" customFormat="1" ht="15.75" spans="4:9">
@@ -6423,16 +6423,16 @@
         <v>96</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="18" customFormat="1" ht="15.75" spans="4:9">
@@ -6441,16 +6441,16 @@
         <v>96</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="19" customFormat="1" ht="15.75" spans="4:9">
@@ -6459,16 +6459,16 @@
         <v>96</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="20" customFormat="1" ht="15.75" spans="4:9">
@@ -6477,16 +6477,16 @@
         <v>96</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="21" customFormat="1" ht="15.75" spans="4:9">
@@ -6495,16 +6495,16 @@
         <v>96</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="22" customFormat="1" ht="15.75" spans="4:9">
@@ -6513,16 +6513,16 @@
         <v>96</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="23" customFormat="1" ht="15.75" spans="4:9">
@@ -6531,16 +6531,16 @@
         <v>96</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="24" customFormat="1" ht="15.75" spans="4:9">
@@ -6549,16 +6549,16 @@
         <v>96</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="25" customFormat="1" ht="15.75" spans="4:9">
@@ -6567,16 +6567,16 @@
         <v>96</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="26" customFormat="1" ht="15.75" spans="4:9">
@@ -6585,16 +6585,16 @@
         <v>96</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="27" customFormat="1" ht="15.75" spans="4:9">
@@ -6603,16 +6603,16 @@
         <v>96</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="28" customFormat="1" ht="15.75" spans="4:9">
@@ -6621,16 +6621,16 @@
         <v>96</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="29" customFormat="1" ht="15.75" spans="4:9">
@@ -6639,16 +6639,16 @@
         <v>96</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="30" customFormat="1" ht="15.75" spans="4:9">
@@ -6657,16 +6657,16 @@
         <v>96</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="31" customFormat="1" ht="15.75" spans="4:9">
@@ -6675,16 +6675,16 @@
         <v>96</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="32" customFormat="1" ht="15.75" spans="4:9">
@@ -6693,16 +6693,16 @@
         <v>96</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="33" customFormat="1" ht="15.75" spans="4:9">
@@ -6711,16 +6711,16 @@
         <v>96</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="34" customFormat="1" ht="15.75" spans="4:9">
@@ -6729,16 +6729,16 @@
         <v>96</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="35" customFormat="1" ht="15.75" spans="4:9">
@@ -6747,16 +6747,16 @@
         <v>96</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="36" customFormat="1" ht="15.75" spans="4:9">
@@ -6765,16 +6765,16 @@
         <v>96</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="I36" s="14" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="37" customFormat="1" ht="15.75" spans="4:9">
@@ -6783,16 +6783,16 @@
         <v>96</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="I37" s="14" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="38" customFormat="1" ht="15.75" spans="4:9">
@@ -6801,16 +6801,16 @@
         <v>96</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="39" customFormat="1" ht="15.75" spans="4:9">
@@ -6819,16 +6819,16 @@
         <v>96</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="40" customFormat="1" ht="15.75" spans="4:9">
@@ -6837,16 +6837,16 @@
         <v>96</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="I40" s="14" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="41" customFormat="1" ht="15.75" spans="4:9">
@@ -6855,16 +6855,16 @@
         <v>96</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="I41" s="14" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="42" customFormat="1" ht="15.75" spans="4:9">
@@ -6873,16 +6873,16 @@
         <v>96</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="I42" s="14" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="43" customFormat="1" ht="15.75" spans="4:9">
@@ -6891,16 +6891,16 @@
         <v>96</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="I43" s="14" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="44" customFormat="1" ht="15.75" spans="4:9">
@@ -6909,16 +6909,16 @@
         <v>96</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="I44" s="14" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="45" customFormat="1" ht="15.75" spans="4:9">
@@ -6927,16 +6927,16 @@
         <v>96</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="I45" s="14" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="46" customFormat="1" ht="15.75" spans="4:9">
@@ -6945,16 +6945,16 @@
         <v>96</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="47" customFormat="1" ht="15.75" spans="4:9">
@@ -6963,16 +6963,16 @@
         <v>96</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="I47" s="14" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="48" customFormat="1" ht="15.75" spans="4:9">
@@ -6981,16 +6981,16 @@
         <v>96</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="I48" s="14" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="49" customFormat="1" ht="15.75" spans="4:9">
@@ -6999,53 +6999,33 @@
         <v>96</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="I49" s="14" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="50" customFormat="1" ht="15.75" spans="4:9">
       <c r="D50" s="10"/>
-      <c r="E50" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>598</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>533</v>
-      </c>
-      <c r="H50" s="12" t="s">
-        <v>599</v>
-      </c>
-      <c r="I50" s="14" t="s">
-        <v>535</v>
-      </c>
+      <c r="E50" s="11"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="14"/>
     </row>
     <row r="51" customFormat="1" ht="15.75" spans="4:9">
       <c r="D51" s="10"/>
-      <c r="E51" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>598</v>
-      </c>
-      <c r="G51" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="H51" s="12" t="s">
-        <v>600</v>
-      </c>
-      <c r="I51" s="14" t="s">
-        <v>535</v>
-      </c>
+      <c r="E51" s="11"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="14"/>
     </row>
     <row r="52" customFormat="1" ht="15.75" spans="4:7">
       <c r="D52" s="10"/>
@@ -18120,8 +18100,8 @@
   <sheetPr/>
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="F9" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -18721,10 +18701,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z377"/>
+  <dimension ref="A1:Z381"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="H130" sqref="H130"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="G106" sqref="G106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -19349,13 +19329,13 @@
         <v>202</v>
       </c>
       <c r="G24" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="H24" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="H24" s="17" t="s">
+      <c r="I24" s="17" t="s">
         <v>204</v>
-      </c>
-      <c r="I24" s="17" t="s">
-        <v>205</v>
       </c>
       <c r="J24" s="17">
         <v>4</v>
@@ -19376,19 +19356,19 @@
     </row>
     <row r="25" ht="15.75" spans="5:16">
       <c r="E25" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G25" s="17" t="s">
         <v>135</v>
       </c>
       <c r="H25" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="I25" s="17" t="s">
         <v>207</v>
-      </c>
-      <c r="I25" s="17" t="s">
-        <v>208</v>
       </c>
       <c r="J25" s="17">
         <v>5</v>
@@ -19409,19 +19389,19 @@
     </row>
     <row r="26" ht="15.75" spans="5:16">
       <c r="E26" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="G26" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="F26" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="G26" s="17" t="s">
+      <c r="H26" s="42" t="s">
         <v>210</v>
       </c>
-      <c r="H26" s="42" t="s">
+      <c r="I26" s="17" t="s">
         <v>211</v>
-      </c>
-      <c r="I26" s="17" t="s">
-        <v>212</v>
       </c>
       <c r="J26" s="17">
         <v>110</v>
@@ -19439,19 +19419,19 @@
     </row>
     <row r="27" ht="15.75" spans="5:16">
       <c r="E27" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="G27" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="F27" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="G27" s="17" t="s">
+      <c r="H27" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="H27" s="20" t="s">
-        <v>215</v>
-      </c>
       <c r="I27" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J27" s="17">
         <v>1</v>
@@ -19472,19 +19452,19 @@
     </row>
     <row r="28" ht="15.75" spans="5:16">
       <c r="E28" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="G28" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="F28" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="G28" s="17" t="s">
+      <c r="H28" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="H28" s="20" t="s">
-        <v>218</v>
-      </c>
       <c r="I28" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J28" s="17">
         <v>2</v>
@@ -19506,19 +19486,19 @@
     </row>
     <row r="29" ht="15.75" spans="5:16">
       <c r="E29" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="G29" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="F29" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="G29" s="17" t="s">
+      <c r="H29" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="H29" s="20" t="s">
+      <c r="I29" s="17" t="s">
         <v>221</v>
-      </c>
-      <c r="I29" s="17" t="s">
-        <v>222</v>
       </c>
       <c r="J29" s="17">
         <v>999</v>
@@ -19537,16 +19517,16 @@
     </row>
     <row r="30" ht="15.75" spans="5:16">
       <c r="E30" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="G30" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="F30" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="G30" s="17" t="s">
+      <c r="H30" s="20" t="s">
         <v>224</v>
-      </c>
-      <c r="H30" s="20" t="s">
-        <v>225</v>
       </c>
       <c r="I30" s="17" t="s">
         <v>172</v>
@@ -19571,16 +19551,16 @@
     </row>
     <row r="31" ht="15.75" spans="5:16">
       <c r="E31" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="G31" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="F31" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="G31" s="17" t="s">
+      <c r="H31" s="20" t="s">
         <v>227</v>
-      </c>
-      <c r="H31" s="20" t="s">
-        <v>228</v>
       </c>
       <c r="I31" s="17" t="s">
         <v>178</v>
@@ -19661,16 +19641,16 @@
     </row>
     <row r="36" ht="15.75" spans="4:16">
       <c r="D36" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>50</v>
       </c>
       <c r="F36" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="G36" s="9" t="s">
         <v>230</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>231</v>
       </c>
       <c r="J36" s="43"/>
       <c r="K36" s="18"/>
@@ -19711,7 +19691,7 @@
         <v>HR_UNIT</v>
       </c>
       <c r="G38" s="40" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J38" s="43"/>
       <c r="K38" s="18"/>
@@ -19731,7 +19711,7 @@
         <v>HR_UNIT</v>
       </c>
       <c r="G39" s="40" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J39" s="43"/>
       <c r="K39" s="18"/>
@@ -19751,7 +19731,7 @@
         <v>HR_UNIT</v>
       </c>
       <c r="G40" s="40" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J40" s="43"/>
       <c r="K40" s="18"/>
@@ -19771,7 +19751,7 @@
         <v>HR_UNIT</v>
       </c>
       <c r="G41" s="40" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J41" s="43"/>
       <c r="K41" s="18"/>
@@ -19791,7 +19771,7 @@
         <v>HR_UNIT</v>
       </c>
       <c r="G42" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J42" s="43"/>
       <c r="K42" s="18"/>
@@ -19832,7 +19812,7 @@
         <v>HR_POSITION</v>
       </c>
       <c r="G44" s="40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J44" s="43"/>
       <c r="K44" s="18"/>
@@ -19852,7 +19832,7 @@
         <v>HR_POSITION</v>
       </c>
       <c r="G45" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J45" s="43"/>
       <c r="K45" s="18"/>
@@ -19872,7 +19852,7 @@
         <v>HR_POSITION</v>
       </c>
       <c r="G46" s="40" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J46" s="43"/>
       <c r="K46" s="18"/>
@@ -19892,7 +19872,7 @@
         <v>HR_POSITION</v>
       </c>
       <c r="G47" s="40" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J47" s="43"/>
       <c r="K47" s="18"/>
@@ -19912,7 +19892,7 @@
         <v>HR_POSITION</v>
       </c>
       <c r="G48" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J48" s="43"/>
       <c r="K48" s="18"/>
@@ -19951,7 +19931,7 @@
         <v>HR_EMPLOYEE</v>
       </c>
       <c r="G50" s="40" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J50" s="43"/>
       <c r="K50" s="18"/>
@@ -19970,7 +19950,7 @@
         <v>HR_EMPLOYEE</v>
       </c>
       <c r="G51" s="40" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J51" s="43"/>
       <c r="K51" s="18"/>
@@ -19989,7 +19969,7 @@
         <v>HR_EMPLOYEE</v>
       </c>
       <c r="G52" s="40" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J52" s="43"/>
       <c r="K52" s="18"/>
@@ -20008,7 +19988,7 @@
         <v>HR_EMPLOYEE</v>
       </c>
       <c r="G53" s="40" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J53" s="43"/>
       <c r="K53" s="18"/>
@@ -20027,7 +20007,7 @@
         <v>HR_EMPLOYEE</v>
       </c>
       <c r="G54" s="40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J54" s="43"/>
       <c r="K54" s="18"/>
@@ -20046,7 +20026,7 @@
         <v>HR_EMPLOYEE</v>
       </c>
       <c r="G55" s="40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J55" s="43"/>
       <c r="K55" s="18"/>
@@ -20065,7 +20045,7 @@
         <v>HR_EMPLOYEE</v>
       </c>
       <c r="G56" s="40" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J56" s="43"/>
       <c r="K56" s="18"/>
@@ -20084,7 +20064,7 @@
         <v>HR_EMPLOYEE</v>
       </c>
       <c r="G57" s="40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J57" s="43"/>
       <c r="K57" s="18"/>
@@ -20103,7 +20083,7 @@
         <v>HR_EMPLOYEE</v>
       </c>
       <c r="G58" s="40" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J58" s="43"/>
       <c r="K58" s="18"/>
@@ -20122,7 +20102,7 @@
         <v>HR_EMPLOYEE</v>
       </c>
       <c r="G59" s="40" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J59" s="43"/>
       <c r="K59" s="18"/>
@@ -20141,7 +20121,7 @@
         <v>HR_EMPLOYEE</v>
       </c>
       <c r="G60" s="40" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J60" s="43"/>
       <c r="K60" s="18"/>
@@ -20160,7 +20140,7 @@
         <v>HR_EMPLOYEE</v>
       </c>
       <c r="G61" s="40" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J61" s="43"/>
       <c r="K61" s="18"/>
@@ -20192,7 +20172,7 @@
         <v>ACCOUNT_USER</v>
       </c>
       <c r="G63" s="40" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="64" ht="15.75" spans="5:7">
@@ -20204,7 +20184,7 @@
         <v>ACCOUNT_USER</v>
       </c>
       <c r="G64" s="40" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="65" ht="15.75" spans="5:7">
@@ -20216,7 +20196,7 @@
         <v>ACCOUNT_USER</v>
       </c>
       <c r="G65" s="40" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="66" ht="15.75" spans="5:7">
@@ -20228,7 +20208,7 @@
         <v>ACCOUNT_USER</v>
       </c>
       <c r="G66" s="40" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="67" ht="15.75" spans="5:7">
@@ -20240,7 +20220,7 @@
         <v>ACCOUNT_USER</v>
       </c>
       <c r="G67" s="40" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="68" ht="15.75" spans="5:7">
@@ -20265,7 +20245,7 @@
         <v>FND_COMPANY</v>
       </c>
       <c r="G69" s="40" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="70" ht="15.75" spans="5:7">
@@ -20277,7 +20257,7 @@
         <v>FND_COMPANY</v>
       </c>
       <c r="G70" s="40" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="71" ht="15.75" spans="5:7">
@@ -20289,7 +20269,7 @@
         <v>FND_COMPANY</v>
       </c>
       <c r="G71" s="40" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="72" ht="15.75" spans="5:7">
@@ -20301,7 +20281,7 @@
         <v>FND_COMPANY</v>
       </c>
       <c r="G72" s="40" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="73" ht="15.75" spans="5:7">
@@ -20326,7 +20306,7 @@
         <v>SYS_CODE_RULE</v>
       </c>
       <c r="G74" s="40" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="75" ht="15.75" spans="5:7">
@@ -20338,7 +20318,7 @@
         <v>SYS_CODE_RULE</v>
       </c>
       <c r="G75" s="40" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="76" ht="15.75" spans="5:7">
@@ -20350,7 +20330,7 @@
         <v>SYS_CODE_RULE</v>
       </c>
       <c r="G76" s="40" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="77" ht="15.75" spans="5:7">
@@ -20362,7 +20342,7 @@
         <v>SYS_CODE_RULE</v>
       </c>
       <c r="G77" s="40" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="78" ht="15.75" spans="5:7">
@@ -20374,7 +20354,7 @@
         <v>SYS_CODE_RULE</v>
       </c>
       <c r="G78" s="40" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="79" ht="15.75" spans="5:7">
@@ -20386,7 +20366,7 @@
         <v>SYS_CODE_RULE</v>
       </c>
       <c r="G79" s="40" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="80" ht="15.75" spans="5:7">
@@ -20411,7 +20391,7 @@
         <v>PROFILE</v>
       </c>
       <c r="G81" s="40" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="82" ht="15.75" spans="5:7">
@@ -20423,7 +20403,7 @@
         <v>PROFILE</v>
       </c>
       <c r="G82" s="40" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="83" ht="15.75" spans="5:7">
@@ -20435,7 +20415,7 @@
         <v>PROFILE</v>
       </c>
       <c r="G83" s="40" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="84" ht="15.75" spans="5:7">
@@ -20447,7 +20427,7 @@
         <v>PROFILE</v>
       </c>
       <c r="G84" s="40" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="85" ht="15.75" spans="5:7">
@@ -20459,7 +20439,7 @@
         <v>PROFILE</v>
       </c>
       <c r="G85" s="40" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="86" ht="15.75" spans="5:7">
@@ -20471,7 +20451,7 @@
         <v>PROFILE</v>
       </c>
       <c r="G86" s="40" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="87" ht="15.75" spans="5:7">
@@ -20496,7 +20476,7 @@
         <v>HOTKEY</v>
       </c>
       <c r="G88" s="40" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="89" ht="15.75" spans="5:7">
@@ -20508,7 +20488,7 @@
         <v>HOTKEY</v>
       </c>
       <c r="G89" s="40" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="90" ht="15.75" spans="5:7">
@@ -20520,7 +20500,7 @@
         <v>HOTKEY</v>
       </c>
       <c r="G90" s="40" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="91" ht="15.75" spans="5:7">
@@ -20532,7 +20512,7 @@
         <v>HOTKEY</v>
       </c>
       <c r="G91" s="40" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="92" ht="15.75" spans="5:7">
@@ -20557,7 +20537,7 @@
         <v>SYS_CONFIG</v>
       </c>
       <c r="G93" s="40" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="94" ht="15.75" spans="5:7">
@@ -20569,7 +20549,7 @@
         <v>SYS_CONFIG</v>
       </c>
       <c r="G94" s="40" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="95" ht="15.75" spans="5:7">
@@ -20594,7 +20574,7 @@
         <v>IF_INVOKE</v>
       </c>
       <c r="G96" s="40" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="97" ht="15.75" spans="5:7">
@@ -20606,7 +20586,7 @@
         <v>IF_INVOKE</v>
       </c>
       <c r="G97" s="40" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="98" ht="15.75" spans="5:7">
@@ -20614,7 +20594,7 @@
         <v>96</v>
       </c>
       <c r="F98" s="40" t="str">
-        <f t="shared" ref="F98:F103" si="6">$F$23</f>
+        <f>$F$23</f>
         <v>ROLE</v>
       </c>
       <c r="G98" s="40" t="str">
@@ -20627,11 +20607,11 @@
         <v>96</v>
       </c>
       <c r="F99" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f>$F$23</f>
         <v>ROLE</v>
       </c>
       <c r="G99" s="40" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="100" ht="15.75" spans="5:7">
@@ -20639,11 +20619,11 @@
         <v>96</v>
       </c>
       <c r="F100" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f>$F$23</f>
         <v>ROLE</v>
       </c>
       <c r="G100" s="40" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="101" ht="15.75" spans="5:7">
@@ -20651,11 +20631,11 @@
         <v>96</v>
       </c>
       <c r="F101" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="F101:F107" si="6">$F$23</f>
         <v>ROLE</v>
       </c>
       <c r="G101" s="40" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="102" ht="15.75" spans="5:7">
@@ -20667,7 +20647,7 @@
         <v>ROLE</v>
       </c>
       <c r="G102" s="40" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="103" ht="15.75" spans="5:7">
@@ -20679,7 +20659,7 @@
         <v>ROLE</v>
       </c>
       <c r="G103" s="40" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="104" ht="15.75" spans="5:7">
@@ -20687,12 +20667,11 @@
         <v>96</v>
       </c>
       <c r="F104" s="40" t="str">
-        <f t="shared" ref="F104:F109" si="7">$F$24</f>
-        <v>MEMBER_ROLE</v>
-      </c>
-      <c r="G104" s="40" t="str">
-        <f>PERMISSION!F20</f>
-        <v>/hap-core/member-role</v>
+        <f t="shared" si="6"/>
+        <v>ROLE</v>
+      </c>
+      <c r="G104" s="40" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="105" ht="15.75" spans="5:7">
@@ -20700,8 +20679,8 @@
         <v>96</v>
       </c>
       <c r="F105" s="40" t="str">
-        <f t="shared" si="7"/>
-        <v>MEMBER_ROLE</v>
+        <f t="shared" si="6"/>
+        <v>ROLE</v>
       </c>
       <c r="G105" s="40" t="s">
         <v>287</v>
@@ -20712,8 +20691,8 @@
         <v>96</v>
       </c>
       <c r="F106" s="40" t="str">
-        <f t="shared" si="7"/>
-        <v>MEMBER_ROLE</v>
+        <f t="shared" si="6"/>
+        <v>ROLE</v>
       </c>
       <c r="G106" s="40" t="s">
         <v>288</v>
@@ -20724,8 +20703,8 @@
         <v>96</v>
       </c>
       <c r="F107" s="40" t="str">
-        <f t="shared" si="7"/>
-        <v>MEMBER_ROLE</v>
+        <f t="shared" si="6"/>
+        <v>ROLE</v>
       </c>
       <c r="G107" s="40" t="s">
         <v>289</v>
@@ -20736,11 +20715,12 @@
         <v>96</v>
       </c>
       <c r="F108" s="40" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="F108:F113" si="7">$F$24</f>
         <v>MEMBER_ROLE</v>
       </c>
-      <c r="G108" s="40" t="s">
-        <v>290</v>
+      <c r="G108" s="40" t="str">
+        <f>PERMISSION!F20</f>
+        <v>/hap-core/member-role</v>
       </c>
     </row>
     <row r="109" ht="15.75" spans="5:7">
@@ -20752,7 +20732,7 @@
         <v>MEMBER_ROLE</v>
       </c>
       <c r="G109" s="40" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="110" ht="15.75" spans="5:7">
@@ -20760,12 +20740,11 @@
         <v>96</v>
       </c>
       <c r="F110" s="40" t="str">
-        <f>$F$25</f>
-        <v>MENU_SETTING</v>
-      </c>
-      <c r="G110" s="40" t="str">
-        <f>PERMISSION!F21</f>
-        <v>/hap-core/menu-setting</v>
+        <f t="shared" si="7"/>
+        <v>MEMBER_ROLE</v>
+      </c>
+      <c r="G110" s="40" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="111" ht="15.75" spans="5:7">
@@ -20773,11 +20752,11 @@
         <v>96</v>
       </c>
       <c r="F111" s="40" t="str">
-        <f>$F$25</f>
-        <v>MENU_SETTING</v>
+        <f t="shared" si="7"/>
+        <v>MEMBER_ROLE</v>
       </c>
       <c r="G111" s="40" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
     </row>
     <row r="112" ht="15.75" spans="5:7">
@@ -20785,11 +20764,11 @@
         <v>96</v>
       </c>
       <c r="F112" s="40" t="str">
-        <f>$F$25</f>
-        <v>MENU_SETTING</v>
+        <f t="shared" si="7"/>
+        <v>MEMBER_ROLE</v>
       </c>
       <c r="G112" s="40" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="113" ht="15.75" spans="5:7">
@@ -20797,11 +20776,11 @@
         <v>96</v>
       </c>
       <c r="F113" s="40" t="str">
-        <f>$F$25</f>
-        <v>MENU_SETTING</v>
+        <f t="shared" si="7"/>
+        <v>MEMBER_ROLE</v>
       </c>
       <c r="G113" s="40" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="114" ht="15.75" spans="5:7">
@@ -20809,12 +20788,12 @@
         <v>96</v>
       </c>
       <c r="F114" s="40" t="str">
-        <f t="shared" ref="F114:F124" si="8">$F$27</f>
-        <v>DATA_PERMISSION_RULE</v>
+        <f>$F$25</f>
+        <v>MENU_SETTING</v>
       </c>
       <c r="G114" s="40" t="str">
-        <f>PERMISSION!F22</f>
-        <v>/hap-core/permission/rule</v>
+        <f>PERMISSION!F21</f>
+        <v>/hap-core/menu-setting</v>
       </c>
     </row>
     <row r="115" ht="15.75" spans="5:7">
@@ -20822,11 +20801,11 @@
         <v>96</v>
       </c>
       <c r="F115" s="40" t="str">
-        <f t="shared" si="8"/>
-        <v>DATA_PERMISSION_RULE</v>
+        <f>$F$25</f>
+        <v>MENU_SETTING</v>
       </c>
       <c r="G115" s="40" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
     </row>
     <row r="116" ht="15.75" spans="5:7">
@@ -20834,8 +20813,8 @@
         <v>96</v>
       </c>
       <c r="F116" s="40" t="str">
-        <f t="shared" si="8"/>
-        <v>DATA_PERMISSION_RULE</v>
+        <f>$F$25</f>
+        <v>MENU_SETTING</v>
       </c>
       <c r="G116" s="40" t="s">
         <v>295</v>
@@ -20846,8 +20825,8 @@
         <v>96</v>
       </c>
       <c r="F117" s="40" t="str">
-        <f t="shared" si="8"/>
-        <v>DATA_PERMISSION_RULE</v>
+        <f>$F$25</f>
+        <v>MENU_SETTING</v>
       </c>
       <c r="G117" s="40" t="s">
         <v>296</v>
@@ -20858,11 +20837,12 @@
         <v>96</v>
       </c>
       <c r="F118" s="40" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="F118:F128" si="8">$F$27</f>
         <v>DATA_PERMISSION_RULE</v>
       </c>
-      <c r="G118" s="40" t="s">
-        <v>297</v>
+      <c r="G118" s="40" t="str">
+        <f>PERMISSION!F22</f>
+        <v>/hap-core/permission/rule</v>
       </c>
     </row>
     <row r="119" ht="15.75" spans="5:7">
@@ -20874,7 +20854,7 @@
         <v>DATA_PERMISSION_RULE</v>
       </c>
       <c r="G119" s="40" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="120" ht="15.75" spans="5:7">
@@ -20886,7 +20866,7 @@
         <v>DATA_PERMISSION_RULE</v>
       </c>
       <c r="G120" s="40" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="121" ht="15.75" spans="5:7">
@@ -20898,7 +20878,7 @@
         <v>DATA_PERMISSION_RULE</v>
       </c>
       <c r="G121" s="40" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="122" ht="15.75" spans="5:7">
@@ -20910,7 +20890,7 @@
         <v>DATA_PERMISSION_RULE</v>
       </c>
       <c r="G122" s="40" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="123" ht="15.75" spans="5:7">
@@ -20922,7 +20902,7 @@
         <v>DATA_PERMISSION_RULE</v>
       </c>
       <c r="G123" s="40" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="124" ht="15.75" spans="5:7">
@@ -20934,7 +20914,7 @@
         <v>DATA_PERMISSION_RULE</v>
       </c>
       <c r="G124" s="40" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="125" ht="15.75" spans="5:7">
@@ -20942,12 +20922,11 @@
         <v>96</v>
       </c>
       <c r="F125" s="40" t="str">
-        <f t="shared" ref="F125:F131" si="9">$F$28</f>
-        <v>DATA_PERMISSION_TABLE</v>
-      </c>
-      <c r="G125" s="40" t="str">
-        <f>PERMISSION!F23</f>
-        <v>/hap-core/permission/table</v>
+        <f t="shared" si="8"/>
+        <v>DATA_PERMISSION_RULE</v>
+      </c>
+      <c r="G125" s="40" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="126" ht="15.75" spans="5:7">
@@ -20955,8 +20934,8 @@
         <v>96</v>
       </c>
       <c r="F126" s="40" t="str">
-        <f t="shared" si="9"/>
-        <v>DATA_PERMISSION_TABLE</v>
+        <f t="shared" si="8"/>
+        <v>DATA_PERMISSION_RULE</v>
       </c>
       <c r="G126" s="40" t="s">
         <v>304</v>
@@ -20967,8 +20946,8 @@
         <v>96</v>
       </c>
       <c r="F127" s="40" t="str">
-        <f t="shared" si="9"/>
-        <v>DATA_PERMISSION_TABLE</v>
+        <f t="shared" si="8"/>
+        <v>DATA_PERMISSION_RULE</v>
       </c>
       <c r="G127" s="40" t="s">
         <v>305</v>
@@ -20979,8 +20958,8 @@
         <v>96</v>
       </c>
       <c r="F128" s="40" t="str">
-        <f t="shared" si="9"/>
-        <v>DATA_PERMISSION_TABLE</v>
+        <f t="shared" si="8"/>
+        <v>DATA_PERMISSION_RULE</v>
       </c>
       <c r="G128" s="40" t="s">
         <v>306</v>
@@ -20991,11 +20970,12 @@
         <v>96</v>
       </c>
       <c r="F129" s="40" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="F129:F135" si="9">$F$28</f>
         <v>DATA_PERMISSION_TABLE</v>
       </c>
-      <c r="G129" s="40" t="s">
-        <v>307</v>
+      <c r="G129" s="40" t="str">
+        <f>PERMISSION!F23</f>
+        <v>/hap-core/permission/table</v>
       </c>
     </row>
     <row r="130" ht="15.75" spans="5:7">
@@ -21007,7 +20987,7 @@
         <v>DATA_PERMISSION_TABLE</v>
       </c>
       <c r="G130" s="40" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="131" ht="15.75" spans="5:7">
@@ -21019,7 +20999,7 @@
         <v>DATA_PERMISSION_TABLE</v>
       </c>
       <c r="G131" s="40" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="132" ht="15.75" spans="5:7">
@@ -21027,12 +21007,11 @@
         <v>96</v>
       </c>
       <c r="F132" s="40" t="str">
-        <f>$F$30</f>
-        <v>USER_INFO</v>
-      </c>
-      <c r="G132" s="40" t="str">
-        <f>PERMISSION!F24</f>
-        <v>/hap-core/sys/user-info</v>
+        <f t="shared" si="9"/>
+        <v>DATA_PERMISSION_TABLE</v>
+      </c>
+      <c r="G132" s="40" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="133" ht="15.75" spans="5:7">
@@ -21040,33 +21019,62 @@
         <v>96</v>
       </c>
       <c r="F133" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>DATA_PERMISSION_TABLE</v>
+      </c>
+      <c r="G133" s="40" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="134" ht="15.75" spans="5:7">
+      <c r="E134" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F134" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>DATA_PERMISSION_TABLE</v>
+      </c>
+      <c r="G134" s="40" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="135" ht="15.75" spans="5:7">
+      <c r="E135" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F135" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>DATA_PERMISSION_TABLE</v>
+      </c>
+      <c r="G135" s="40" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="136" ht="15.75" spans="5:7">
+      <c r="E136" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F136" s="40" t="str">
+        <f>$F$30</f>
+        <v>USER_INFO</v>
+      </c>
+      <c r="G136" s="40" t="str">
+        <f>PERMISSION!F24</f>
+        <v>/hap-core/sys/user-info</v>
+      </c>
+    </row>
+    <row r="137" ht="15.75" spans="5:7">
+      <c r="E137" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F137" s="40" t="str">
         <f>$F$31</f>
         <v>USER_PREFERENCE</v>
       </c>
-      <c r="G133" s="40" t="str">
+      <c r="G137" s="40" t="str">
         <f>PERMISSION!F25</f>
         <v>/hap-core/sys/preferences</v>
       </c>
-    </row>
-    <row r="134" ht="15.75" spans="5:7">
-      <c r="E134" s="11"/>
-      <c r="F134" s="40"/>
-      <c r="G134" s="40"/>
-    </row>
-    <row r="135" ht="15.75" spans="5:7">
-      <c r="E135" s="11"/>
-      <c r="F135" s="40"/>
-      <c r="G135" s="40"/>
-    </row>
-    <row r="136" ht="15.75" spans="5:7">
-      <c r="E136" s="11"/>
-      <c r="F136" s="40"/>
-      <c r="G136" s="40"/>
-    </row>
-    <row r="137" ht="15.75" spans="5:7">
-      <c r="E137" s="11"/>
-      <c r="F137" s="40"/>
-      <c r="G137" s="40"/>
     </row>
     <row r="138" ht="15.75" spans="5:7">
       <c r="E138" s="11"/>
@@ -21610,31 +21618,39 @@
     </row>
     <row r="246" ht="15.75" spans="5:7">
       <c r="E246" s="11"/>
+      <c r="F246" s="40"/>
       <c r="G246" s="40"/>
     </row>
     <row r="247" ht="15.75" spans="5:7">
       <c r="E247" s="11"/>
+      <c r="F247" s="40"/>
       <c r="G247" s="40"/>
     </row>
     <row r="248" ht="15.75" spans="5:7">
       <c r="E248" s="11"/>
+      <c r="F248" s="40"/>
       <c r="G248" s="40"/>
     </row>
     <row r="249" ht="15.75" spans="5:7">
       <c r="E249" s="11"/>
+      <c r="F249" s="40"/>
       <c r="G249" s="40"/>
     </row>
-    <row r="250" ht="15.75" spans="5:5">
+    <row r="250" ht="15.75" spans="5:7">
       <c r="E250" s="11"/>
-    </row>
-    <row r="251" ht="15.75" spans="5:5">
+      <c r="G250" s="40"/>
+    </row>
+    <row r="251" ht="15.75" spans="5:7">
       <c r="E251" s="11"/>
-    </row>
-    <row r="252" ht="15.75" spans="5:5">
+      <c r="G251" s="40"/>
+    </row>
+    <row r="252" ht="15.75" spans="5:7">
       <c r="E252" s="11"/>
-    </row>
-    <row r="253" ht="15.75" spans="5:5">
+      <c r="G252" s="40"/>
+    </row>
+    <row r="253" ht="15.75" spans="5:7">
       <c r="E253" s="11"/>
+      <c r="G253" s="40"/>
     </row>
     <row r="254" ht="15.75" spans="5:5">
       <c r="E254" s="11"/>
@@ -22007,6 +22023,18 @@
     </row>
     <row r="377" ht="15.75" spans="5:5">
       <c r="E377" s="11"/>
+    </row>
+    <row r="378" ht="15.75" spans="5:5">
+      <c r="E378" s="11"/>
+    </row>
+    <row r="379" ht="15.75" spans="5:5">
+      <c r="E379" s="11"/>
+    </row>
+    <row r="380" ht="15.75" spans="5:5">
+      <c r="E380" s="11"/>
+    </row>
+    <row r="381" ht="15.75" spans="5:5">
+      <c r="E381" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -22061,12 +22089,12 @@
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" ht="15.75" spans="4:7">
       <c r="D7" s="8" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>50</v>
@@ -22075,7 +22103,7 @@
         <v>91</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="4:7">
@@ -22391,22 +22419,22 @@
     </row>
     <row r="7" ht="15.75" spans="4:13">
       <c r="D7" s="8" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>52</v>
@@ -22415,15 +22443,15 @@
         <v>53</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="5:13">
       <c r="E8" s="39" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="F8">
         <v>1000</v>
@@ -22434,24 +22462,24 @@
         <v>首席执行官</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="J8" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="L8" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="5:13">
       <c r="E9" s="39" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F9">
         <v>100000</v>
@@ -22465,24 +22493,24 @@
         <v>首席执行官</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="J9" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="L9" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" ht="15.75" spans="5:13">
       <c r="E10" s="39" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="F10">
         <v>100020</v>
@@ -22496,24 +22524,24 @@
         <v>技术总监</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="J10" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="L10" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" ht="15.75" spans="5:13">
       <c r="E11" s="39" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="F11">
         <v>100040</v>
@@ -22527,24 +22555,24 @@
         <v>研发总监</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="J11" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L11" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" ht="15.75" spans="5:13">
       <c r="E12" s="39" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="F12">
         <v>100050</v>
@@ -22558,16 +22586,16 @@
         <v>人事总监</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="J12" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="K12" s="12" t="s">
         <v>159</v>
       </c>
       <c r="L12" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="M12" s="12" t="s">
         <v>159</v>
@@ -22575,7 +22603,7 @@
     </row>
     <row r="13" ht="15.75" spans="5:13">
       <c r="E13" s="39" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="F13">
         <v>100060</v>
@@ -22589,24 +22617,24 @@
         <v>市场部总监</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="J13" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="L13" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="14" ht="15.75" spans="5:13">
       <c r="E14" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="F14">
         <v>100070</v>
@@ -22620,24 +22648,24 @@
         <v>销售总监</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="J14" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="L14" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" ht="15.75" spans="5:13">
       <c r="E15" s="39" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F15">
         <v>100080</v>
@@ -22651,19 +22679,19 @@
         <v>财务总监</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="J15" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="L15" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -22714,30 +22742,30 @@
     </row>
     <row r="6" spans="7:8">
       <c r="G6" s="38" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7" ht="15.75" spans="4:13">
       <c r="D7" s="8" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>52</v>
@@ -22746,10 +22774,10 @@
         <v>53</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="5:13">
@@ -22765,7 +22793,7 @@
         <v>汉得信息</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="J8" t="s">
         <v>58</v>
@@ -22782,10 +22810,10 @@
     </row>
     <row r="9" ht="15.75" spans="5:13">
       <c r="E9" s="39" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="G9" s="40" t="str">
         <f>$E$8</f>
@@ -22796,27 +22824,27 @@
         <v>汉得信息</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="J9" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="L9" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" ht="15.75" spans="5:13">
       <c r="E10" s="39" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="G10" s="40" t="str">
         <f>$E$9</f>
@@ -22827,27 +22855,27 @@
         <v>技术部</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="J10" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="L10" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" ht="15.75" spans="5:13">
       <c r="E11" s="39" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="G11" s="40" t="str">
         <f>$E$9</f>
@@ -22858,27 +22886,27 @@
         <v>销售部</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="J11" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="L11" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" ht="15.75" spans="5:13">
       <c r="E12" s="39" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="G12" s="40" t="str">
         <f>$E$9</f>
@@ -22889,27 +22917,27 @@
         <v>财务部</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="J12" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="L12" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="13" ht="15.75" spans="5:13">
       <c r="E13" s="39" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="G13" s="40" t="str">
         <f>$E$9</f>
@@ -22920,24 +22948,24 @@
         <v>市场部</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="J13" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="L13" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" ht="15.75" spans="5:13">
       <c r="E14" s="39" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="F14" s="37">
         <v>111428</v>
@@ -22951,24 +22979,24 @@
         <v>人力资源部</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="J14" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="L14" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="15" ht="15.75" spans="5:13">
       <c r="E15" s="39" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="F15" s="37">
         <v>101662</v>
@@ -22982,24 +23010,24 @@
         <v>人力资源部</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="J15" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="L15" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="16" ht="15.75" spans="5:13">
       <c r="E16" s="39" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="F16" s="37">
         <v>115189</v>
@@ -23013,24 +23041,24 @@
         <v>人力资源部</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="J16" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="L16" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="17" ht="15.75" spans="5:13">
       <c r="E17" s="39" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="F17" s="37">
         <v>110143</v>
@@ -23044,24 +23072,24 @@
         <v>人力资源部</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="J17" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="L17" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="18" ht="15.75" spans="5:13">
       <c r="E18" s="39" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F18" s="37">
         <v>115769</v>
@@ -23075,24 +23103,24 @@
         <v>基础研发部</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="J18" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="L18" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="19" ht="15.75" spans="5:13">
       <c r="E19" s="39" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F19" s="37">
         <v>115731</v>
@@ -23106,19 +23134,19 @@
         <v>基础研发部</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="J19" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="L19" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -23185,37 +23213,37 @@
         <v>170</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>66</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="N7" s="8" t="s">
         <v>70</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="5:15">
@@ -23229,7 +23257,7 @@
         <v>58</v>
       </c>
       <c r="H8" s="35" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="I8" s="12" t="s">
         <v>77</v>
@@ -23238,33 +23266,33 @@
         <v>13764784777</v>
       </c>
       <c r="K8" s="35" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="M8" s="37">
         <v>1</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="5:15">
       <c r="E9" s="11" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="G9" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="I9" s="12" t="s">
         <v>77</v>
@@ -23273,33 +23301,33 @@
         <v>139</v>
       </c>
       <c r="K9" s="35" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="M9" s="37">
         <v>37132502</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" ht="15.75" spans="5:15">
       <c r="E10" s="11" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="G10" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="H10" s="35" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="I10" s="12" t="s">
         <v>77</v>
@@ -23308,33 +23336,33 @@
         <v>189</v>
       </c>
       <c r="K10" s="35" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="M10" s="37">
         <v>37132503</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" ht="15.75" spans="5:15">
       <c r="E11" s="11" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="G11" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="H11" s="35" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="I11" s="12" t="s">
         <v>77</v>
@@ -23343,33 +23371,33 @@
         <v>13764784776</v>
       </c>
       <c r="K11" s="35" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="M11" s="37">
         <v>37132511</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" ht="15.75" spans="5:15">
       <c r="E12" s="11" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="G12" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="H12" s="35" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="I12" s="12" t="s">
         <v>83</v>
@@ -23378,33 +23406,33 @@
         <v>13876499</v>
       </c>
       <c r="K12" s="35" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="M12" s="37">
         <v>5675453</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="O12" s="12" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="13" ht="15.75" spans="5:15">
       <c r="E13" s="11" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="G13" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="H13" s="35" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="I13" s="12" t="s">
         <v>86</v>
@@ -23413,39 +23441,39 @@
         <v>1889343</v>
       </c>
       <c r="K13" s="35" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="M13" s="37">
         <v>3445562</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="O13" s="12" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="18" ht="15.75" spans="4:9">
       <c r="D18" s="8" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="19" ht="15.75" spans="5:9">
@@ -23461,10 +23489,10 @@
         <v>管理员</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" ht="15.75" spans="5:9">
@@ -23480,10 +23508,10 @@
         <v>技术总监</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" ht="15.75" spans="5:9">
@@ -23499,10 +23527,10 @@
         <v>研发总监</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="22" ht="15.75" spans="5:9">
@@ -23518,10 +23546,10 @@
         <v>研发工程师</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" ht="15.75" spans="5:9">
@@ -23537,10 +23565,10 @@
         <v>研发工程师</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="24" ht="15.75" spans="5:9">
@@ -23556,10 +23584,10 @@
         <v>人事专员</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25" ht="15.75" spans="5:9">
@@ -23575,10 +23603,10 @@
         <v>人事主管</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -23636,16 +23664,16 @@
         <v>179</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="1:7">
@@ -23653,16 +23681,16 @@
         <v>42651</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>96</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="5:7">
@@ -23670,10 +23698,10 @@
         <v>96</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="10" ht="15.75" spans="5:7">
@@ -23681,7 +23709,7 @@
         <v>96</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="G10" s="17">
         <v>123456</v>
@@ -23692,7 +23720,7 @@
         <v>96</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="G11" s="17">
         <v>8</v>
@@ -23703,10 +23731,10 @@
         <v>96</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="13" ht="15.75" spans="1:7">
@@ -23714,13 +23742,13 @@
         <v>42651</v>
       </c>
       <c r="B13" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>96</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -23731,16 +23759,16 @@
         <v>42703</v>
       </c>
       <c r="B14" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>96</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="15" ht="15.75" spans="5:7">
@@ -23748,10 +23776,10 @@
         <v>96</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="16" ht="15.75" spans="1:7">
@@ -23759,16 +23787,16 @@
         <v>42725</v>
       </c>
       <c r="B16" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>96</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="17" ht="15.75" spans="1:7">
@@ -23776,16 +23804,16 @@
         <v>42865</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>96</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="18" ht="15.75" spans="5:7">
@@ -23793,10 +23821,10 @@
         <v>96</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="19" ht="15.75" spans="5:7">
@@ -23804,10 +23832,10 @@
         <v>96</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
   </sheetData>

--- a/hap-core/src/main/resources/script/db/data/core-init-data.xlsx
+++ b/hap-core/src/main/resources/script/db/data/core-init-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" tabRatio="500" firstSheet="4" activeTab="11"/>
+    <workbookView windowWidth="28800" windowHeight="12465" tabRatio="500" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="603">
   <si>
     <r>
       <rPr>
@@ -2583,6 +2583,12 @@
     <t>sys-config-dataset.mutations</t>
   </si>
   <si>
+    <t>sys-config.uploadSystemLogo</t>
+  </si>
+  <si>
+    <t>sys-config.uploadSystemFavicon</t>
+  </si>
+  <si>
     <t>inbound-dataset.queries</t>
   </si>
   <si>
@@ -3709,13 +3715,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="176" formatCode="[$-804]yyyy\-m\-d"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="yyyy\-m\-d"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="[$-804]yyyy\-m\-d"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="178" formatCode="yyyy\-m\-d"/>
     <numFmt numFmtId="179" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="49">
@@ -3876,34 +3882,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -3918,9 +3896,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3934,11 +3941,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3965,6 +3986,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -3974,38 +4002,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4082,7 +4088,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4094,19 +4154,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4118,31 +4184,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4154,19 +4214,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4190,31 +4244,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4226,37 +4262,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4402,22 +4408,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4452,165 +4453,170 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="33" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
@@ -5418,19 +5424,19 @@
     </row>
     <row r="7" ht="15.75" spans="4:8">
       <c r="D7" s="8" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="1:8">
@@ -5438,19 +5444,19 @@
         <v>42873</v>
       </c>
       <c r="B8" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>96</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="5:5">
@@ -5458,16 +5464,16 @@
     </row>
     <row r="16" ht="15.75" spans="4:8">
       <c r="D16" s="8" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>54</v>
@@ -5486,7 +5492,7 @@
         <v>67</v>
       </c>
       <c r="H17" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="18" ht="15.75" spans="5:8">
@@ -5498,10 +5504,10 @@
         <v>*</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="H18" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="19" ht="15.75" spans="5:8">
@@ -5513,10 +5519,10 @@
         <v>*</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="H19" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="20" ht="15.75" spans="5:8">
@@ -5528,10 +5534,10 @@
         <v>*</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="H20" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="21" ht="15.75" spans="5:8">
@@ -5543,10 +5549,10 @@
         <v>*</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="H21" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="22" ht="15.75" spans="5:8">
@@ -5558,30 +5564,30 @@
         <v>*</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="H22" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="26" ht="15.75" spans="4:9">
       <c r="D26" s="8" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>54</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="27" ht="15.75" spans="5:9">
@@ -5589,17 +5595,17 @@
         <v>96</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="G27" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="H27" s="34" t="str">
         <f>$E$8</f>
         <v>*</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="28" ht="15.75" spans="5:9">
@@ -5607,37 +5613,37 @@
         <v>96</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="G28" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="H28" s="34" t="str">
         <f>$E$8</f>
         <v>*</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="32" ht="15.75" spans="4:9">
       <c r="D32" s="8" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="H32" s="8" t="s">
         <v>54</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="33" ht="17.25" spans="5:9">
@@ -5649,13 +5655,13 @@
         <v>*</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="34" ht="17.25" spans="5:9">
@@ -5667,13 +5673,13 @@
         <v>*</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="35" ht="17.25" spans="5:9">
@@ -5685,13 +5691,13 @@
         <v>*</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="36" ht="17.25" spans="5:9">
@@ -5703,33 +5709,33 @@
         <v>*</v>
       </c>
       <c r="G36" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="H36" s="14" t="s">
         <v>487</v>
       </c>
-      <c r="H36" s="14" t="s">
-        <v>485</v>
-      </c>
       <c r="I36" s="12" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="38" ht="15.75" spans="4:9">
       <c r="D38" s="8" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="39" ht="15.75" spans="5:9">
@@ -5741,13 +5747,13 @@
         <v>*</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="I39" s="20" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="40" ht="15.75" spans="5:9">
@@ -5759,13 +5765,13 @@
         <v>*</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="I40" s="20" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="41" ht="15.75" spans="5:9">
@@ -5777,13 +5783,13 @@
         <v>*</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="I41" s="20" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="42" ht="15.75" spans="5:9">
@@ -5795,45 +5801,45 @@
         <v>*</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="I42" s="20" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="46" ht="15.75" spans="4:14">
       <c r="D46" s="8" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="J46" s="8" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="L46" s="8" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="M46" s="8" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="N46" s="8"/>
     </row>
@@ -5859,13 +5865,13 @@
         <v>6</v>
       </c>
       <c r="K47" s="12" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="L47" s="12" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="M47" s="12" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="48" ht="15.75" spans="5:13">
@@ -5890,13 +5896,13 @@
         <v>6</v>
       </c>
       <c r="K48" s="12" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="L48" s="12" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="M48" s="12" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="49" ht="15.75" spans="5:13">
@@ -5921,13 +5927,13 @@
         <v>120</v>
       </c>
       <c r="K49" s="12" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="L49" s="12" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="M49" s="12" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="50" ht="15.75" spans="5:13">
@@ -5952,13 +5958,13 @@
         <v>120</v>
       </c>
       <c r="K50" s="12" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="L50" s="12" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="M50" s="12" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="51" ht="15.75" spans="5:13">
@@ -5983,13 +5989,13 @@
         <v>120</v>
       </c>
       <c r="K51" s="12" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="L51" s="12" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="M51" s="12" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -6045,28 +6051,28 @@
     </row>
     <row r="7" ht="15.75" spans="4:13">
       <c r="D7" s="8" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>184</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
@@ -6076,22 +6082,22 @@
         <v>96</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="H8" s="20">
         <v>0</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="M8" s="12"/>
     </row>
@@ -6100,22 +6106,22 @@
         <v>96</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="H9" s="20">
         <v>0</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="M9" s="12"/>
     </row>
@@ -6124,22 +6130,22 @@
         <v>96</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="H10" s="20">
         <v>0</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="J10" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="M10" s="12"/>
     </row>
@@ -6148,22 +6154,22 @@
         <v>96</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="H11" s="20">
         <v>0</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="J11" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="M11" s="12"/>
     </row>
@@ -6179,7 +6185,7 @@
   <sheetPr/>
   <dimension ref="A1:J1738"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+    <sheetView topLeftCell="B19" workbookViewId="0">
       <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
@@ -6225,7 +6231,7 @@
     </row>
     <row r="5" customFormat="1" spans="4:4">
       <c r="D5" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="6" customFormat="1"/>
@@ -6237,22 +6243,22 @@
         <v>48</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>54</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="8" customFormat="1" ht="15.75" spans="4:9">
@@ -6261,16 +6267,16 @@
         <v>96</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="9" customFormat="1" ht="15.75" spans="4:9">
@@ -6279,16 +6285,16 @@
         <v>96</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="H9" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="I9" s="14" t="s">
         <v>540</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="15.75" spans="4:9">
@@ -6297,16 +6303,16 @@
         <v>96</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="11" customFormat="1" ht="15.75" spans="4:9">
@@ -6315,16 +6321,16 @@
         <v>96</v>
       </c>
       <c r="F11" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="G11" s="12" t="s">
         <v>541</v>
       </c>
-      <c r="G11" s="12" t="s">
-        <v>539</v>
-      </c>
       <c r="H11" s="12" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="15.75" spans="4:9">
@@ -6333,16 +6339,16 @@
         <v>96</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="13" customFormat="1" ht="15.75" spans="4:9">
@@ -6351,16 +6357,16 @@
         <v>96</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="14" customFormat="1" ht="15.75" spans="4:9">
@@ -6369,16 +6375,16 @@
         <v>96</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="15" customFormat="1" ht="15.75" spans="4:9">
@@ -6387,16 +6393,16 @@
         <v>96</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="16" customFormat="1" ht="15.75" spans="4:9">
@@ -6405,16 +6411,16 @@
         <v>96</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="17" customFormat="1" ht="15.75" spans="4:9">
@@ -6423,16 +6429,16 @@
         <v>96</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="18" customFormat="1" ht="15.75" spans="4:9">
@@ -6441,16 +6447,16 @@
         <v>96</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="19" customFormat="1" ht="15.75" spans="4:9">
@@ -6459,16 +6465,16 @@
         <v>96</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="20" customFormat="1" ht="15.75" spans="4:9">
@@ -6477,16 +6483,16 @@
         <v>96</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="21" customFormat="1" ht="15.75" spans="4:9">
@@ -6495,16 +6501,16 @@
         <v>96</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="22" customFormat="1" ht="15.75" spans="4:9">
@@ -6513,16 +6519,16 @@
         <v>96</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="23" customFormat="1" ht="15.75" spans="4:9">
@@ -6531,16 +6537,16 @@
         <v>96</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="24" customFormat="1" ht="15.75" spans="4:9">
@@ -6549,16 +6555,16 @@
         <v>96</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="25" customFormat="1" ht="15.75" spans="4:9">
@@ -6567,16 +6573,16 @@
         <v>96</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="26" customFormat="1" ht="15.75" spans="4:9">
@@ -6585,16 +6591,16 @@
         <v>96</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="27" customFormat="1" ht="15.75" spans="4:9">
@@ -6603,16 +6609,16 @@
         <v>96</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="28" customFormat="1" ht="15.75" spans="4:9">
@@ -6621,16 +6627,16 @@
         <v>96</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="29" customFormat="1" ht="15.75" spans="4:9">
@@ -6639,16 +6645,16 @@
         <v>96</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="30" customFormat="1" ht="15.75" spans="4:9">
@@ -6657,16 +6663,16 @@
         <v>96</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="31" customFormat="1" ht="15.75" spans="4:9">
@@ -6675,16 +6681,16 @@
         <v>96</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="32" customFormat="1" ht="15.75" spans="4:9">
@@ -6693,16 +6699,16 @@
         <v>96</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="33" customFormat="1" ht="15.75" spans="4:9">
@@ -6711,16 +6717,16 @@
         <v>96</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="34" customFormat="1" ht="15.75" spans="4:9">
@@ -6729,16 +6735,16 @@
         <v>96</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="35" customFormat="1" ht="15.75" spans="4:9">
@@ -6747,16 +6753,16 @@
         <v>96</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="36" customFormat="1" ht="15.75" spans="4:9">
@@ -6765,16 +6771,16 @@
         <v>96</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="I36" s="14" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="37" customFormat="1" ht="15.75" spans="4:9">
@@ -6783,16 +6789,16 @@
         <v>96</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="I37" s="14" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="38" customFormat="1" ht="15.75" spans="4:9">
@@ -6801,16 +6807,16 @@
         <v>96</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="39" customFormat="1" ht="15.75" spans="4:9">
@@ -6819,16 +6825,16 @@
         <v>96</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="40" customFormat="1" ht="15.75" spans="4:9">
@@ -6837,16 +6843,16 @@
         <v>96</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="I40" s="14" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="41" customFormat="1" ht="15.75" spans="4:9">
@@ -6855,16 +6861,16 @@
         <v>96</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="I41" s="14" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="42" customFormat="1" ht="15.75" spans="4:9">
@@ -6873,16 +6879,16 @@
         <v>96</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="I42" s="14" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="43" customFormat="1" ht="15.75" spans="4:9">
@@ -6891,16 +6897,16 @@
         <v>96</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="I43" s="14" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="44" customFormat="1" ht="15.75" spans="4:9">
@@ -6909,16 +6915,16 @@
         <v>96</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="I44" s="14" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="45" customFormat="1" ht="15.75" spans="4:9">
@@ -6927,16 +6933,16 @@
         <v>96</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="I45" s="14" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="46" customFormat="1" ht="15.75" spans="4:9">
@@ -6945,16 +6951,16 @@
         <v>96</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="47" customFormat="1" ht="15.75" spans="4:9">
@@ -6963,16 +6969,16 @@
         <v>96</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="I47" s="14" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="48" customFormat="1" ht="15.75" spans="4:9">
@@ -6981,16 +6987,16 @@
         <v>96</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="I48" s="14" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="49" customFormat="1" ht="15.75" spans="4:9">
@@ -6999,16 +7005,16 @@
         <v>96</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="I49" s="14" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="50" customFormat="1" ht="15.75" spans="4:9">
@@ -18701,10 +18707,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z381"/>
+  <dimension ref="A1:Z383"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="G106" sqref="G106"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -20557,12 +20563,11 @@
         <v>96</v>
       </c>
       <c r="F95" s="40" t="str">
-        <f>$F$22</f>
-        <v>IF_INVOKE</v>
-      </c>
-      <c r="G95" s="40" t="str">
-        <f>PERMISSION!F17</f>
-        <v>/hap-core/if-invoke</v>
+        <f>$F$16</f>
+        <v>SYS_CONFIG</v>
+      </c>
+      <c r="G95" s="40" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="96" ht="15.75" spans="5:7">
@@ -20570,11 +20575,11 @@
         <v>96</v>
       </c>
       <c r="F96" s="40" t="str">
-        <f>$F$22</f>
-        <v>IF_INVOKE</v>
+        <f>$F$16</f>
+        <v>SYS_CONFIG</v>
       </c>
       <c r="G96" s="40" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="97" ht="15.75" spans="5:7">
@@ -20585,8 +20590,9 @@
         <f>$F$22</f>
         <v>IF_INVOKE</v>
       </c>
-      <c r="G97" s="40" t="s">
-        <v>280</v>
+      <c r="G97" s="40" t="str">
+        <f>PERMISSION!F17</f>
+        <v>/hap-core/if-invoke</v>
       </c>
     </row>
     <row r="98" ht="15.75" spans="5:7">
@@ -20594,12 +20600,11 @@
         <v>96</v>
       </c>
       <c r="F98" s="40" t="str">
-        <f>$F$23</f>
-        <v>ROLE</v>
-      </c>
-      <c r="G98" s="40" t="str">
-        <f>PERMISSION!F19</f>
-        <v>/hap-core/role</v>
+        <f>$F$22</f>
+        <v>IF_INVOKE</v>
+      </c>
+      <c r="G98" s="40" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="99" ht="15.75" spans="5:7">
@@ -20607,11 +20612,11 @@
         <v>96</v>
       </c>
       <c r="F99" s="40" t="str">
-        <f>$F$23</f>
-        <v>ROLE</v>
+        <f>$F$22</f>
+        <v>IF_INVOKE</v>
       </c>
       <c r="G99" s="40" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="100" ht="15.75" spans="5:7">
@@ -20622,8 +20627,9 @@
         <f>$F$23</f>
         <v>ROLE</v>
       </c>
-      <c r="G100" s="40" t="s">
-        <v>282</v>
+      <c r="G100" s="40" t="str">
+        <f>PERMISSION!F19</f>
+        <v>/hap-core/role</v>
       </c>
     </row>
     <row r="101" ht="15.75" spans="5:7">
@@ -20631,7 +20637,7 @@
         <v>96</v>
       </c>
       <c r="F101" s="40" t="str">
-        <f t="shared" ref="F101:F107" si="6">$F$23</f>
+        <f>$F$23</f>
         <v>ROLE</v>
       </c>
       <c r="G101" s="40" t="s">
@@ -20643,7 +20649,7 @@
         <v>96</v>
       </c>
       <c r="F102" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f>$F$23</f>
         <v>ROLE</v>
       </c>
       <c r="G102" s="40" t="s">
@@ -20655,7 +20661,7 @@
         <v>96</v>
       </c>
       <c r="F103" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="F103:F109" si="6">$F$23</f>
         <v>ROLE</v>
       </c>
       <c r="G103" s="40" t="s">
@@ -20715,12 +20721,11 @@
         <v>96</v>
       </c>
       <c r="F108" s="40" t="str">
-        <f t="shared" ref="F108:F113" si="7">$F$24</f>
-        <v>MEMBER_ROLE</v>
-      </c>
-      <c r="G108" s="40" t="str">
-        <f>PERMISSION!F20</f>
-        <v>/hap-core/member-role</v>
+        <f t="shared" si="6"/>
+        <v>ROLE</v>
+      </c>
+      <c r="G108" s="40" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="109" ht="15.75" spans="5:7">
@@ -20728,11 +20733,11 @@
         <v>96</v>
       </c>
       <c r="F109" s="40" t="str">
-        <f t="shared" si="7"/>
-        <v>MEMBER_ROLE</v>
+        <f t="shared" si="6"/>
+        <v>ROLE</v>
       </c>
       <c r="G109" s="40" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="110" ht="15.75" spans="5:7">
@@ -20740,11 +20745,12 @@
         <v>96</v>
       </c>
       <c r="F110" s="40" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="F110:F115" si="7">$F$24</f>
         <v>MEMBER_ROLE</v>
       </c>
-      <c r="G110" s="40" t="s">
-        <v>291</v>
+      <c r="G110" s="40" t="str">
+        <f>PERMISSION!F20</f>
+        <v>/hap-core/member-role</v>
       </c>
     </row>
     <row r="111" ht="15.75" spans="5:7">
@@ -20788,12 +20794,11 @@
         <v>96</v>
       </c>
       <c r="F114" s="40" t="str">
-        <f>$F$25</f>
-        <v>MENU_SETTING</v>
-      </c>
-      <c r="G114" s="40" t="str">
-        <f>PERMISSION!F21</f>
-        <v>/hap-core/menu-setting</v>
+        <f t="shared" si="7"/>
+        <v>MEMBER_ROLE</v>
+      </c>
+      <c r="G114" s="40" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="115" ht="15.75" spans="5:7">
@@ -20801,11 +20806,11 @@
         <v>96</v>
       </c>
       <c r="F115" s="40" t="str">
-        <f>$F$25</f>
-        <v>MENU_SETTING</v>
+        <f t="shared" si="7"/>
+        <v>MEMBER_ROLE</v>
       </c>
       <c r="G115" s="40" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
     </row>
     <row r="116" ht="15.75" spans="5:7">
@@ -20816,8 +20821,9 @@
         <f>$F$25</f>
         <v>MENU_SETTING</v>
       </c>
-      <c r="G116" s="40" t="s">
-        <v>295</v>
+      <c r="G116" s="40" t="str">
+        <f>PERMISSION!F21</f>
+        <v>/hap-core/menu-setting</v>
       </c>
     </row>
     <row r="117" ht="15.75" spans="5:7">
@@ -20829,7 +20835,7 @@
         <v>MENU_SETTING</v>
       </c>
       <c r="G117" s="40" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
     </row>
     <row r="118" ht="15.75" spans="5:7">
@@ -20837,12 +20843,11 @@
         <v>96</v>
       </c>
       <c r="F118" s="40" t="str">
-        <f t="shared" ref="F118:F128" si="8">$F$27</f>
-        <v>DATA_PERMISSION_RULE</v>
-      </c>
-      <c r="G118" s="40" t="str">
-        <f>PERMISSION!F22</f>
-        <v>/hap-core/permission/rule</v>
+        <f>$F$25</f>
+        <v>MENU_SETTING</v>
+      </c>
+      <c r="G118" s="40" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="119" ht="15.75" spans="5:7">
@@ -20850,11 +20855,11 @@
         <v>96</v>
       </c>
       <c r="F119" s="40" t="str">
-        <f t="shared" si="8"/>
-        <v>DATA_PERMISSION_RULE</v>
+        <f>$F$25</f>
+        <v>MENU_SETTING</v>
       </c>
       <c r="G119" s="40" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="120" ht="15.75" spans="5:7">
@@ -20862,11 +20867,12 @@
         <v>96</v>
       </c>
       <c r="F120" s="40" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="F120:F130" si="8">$F$27</f>
         <v>DATA_PERMISSION_RULE</v>
       </c>
-      <c r="G120" s="40" t="s">
-        <v>298</v>
+      <c r="G120" s="40" t="str">
+        <f>PERMISSION!F22</f>
+        <v>/hap-core/permission/rule</v>
       </c>
     </row>
     <row r="121" ht="15.75" spans="5:7">
@@ -20970,12 +20976,11 @@
         <v>96</v>
       </c>
       <c r="F129" s="40" t="str">
-        <f t="shared" ref="F129:F135" si="9">$F$28</f>
-        <v>DATA_PERMISSION_TABLE</v>
-      </c>
-      <c r="G129" s="40" t="str">
-        <f>PERMISSION!F23</f>
-        <v>/hap-core/permission/table</v>
+        <f t="shared" si="8"/>
+        <v>DATA_PERMISSION_RULE</v>
+      </c>
+      <c r="G129" s="40" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="130" ht="15.75" spans="5:7">
@@ -20983,11 +20988,11 @@
         <v>96</v>
       </c>
       <c r="F130" s="40" t="str">
-        <f t="shared" si="9"/>
-        <v>DATA_PERMISSION_TABLE</v>
+        <f t="shared" si="8"/>
+        <v>DATA_PERMISSION_RULE</v>
       </c>
       <c r="G130" s="40" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="131" ht="15.75" spans="5:7">
@@ -20995,11 +21000,12 @@
         <v>96</v>
       </c>
       <c r="F131" s="40" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="F131:F137" si="9">$F$28</f>
         <v>DATA_PERMISSION_TABLE</v>
       </c>
-      <c r="G131" s="40" t="s">
-        <v>308</v>
+      <c r="G131" s="40" t="str">
+        <f>PERMISSION!F23</f>
+        <v>/hap-core/permission/table</v>
       </c>
     </row>
     <row r="132" ht="15.75" spans="5:7">
@@ -21055,12 +21061,11 @@
         <v>96</v>
       </c>
       <c r="F136" s="40" t="str">
-        <f>$F$30</f>
-        <v>USER_INFO</v>
-      </c>
-      <c r="G136" s="40" t="str">
-        <f>PERMISSION!F24</f>
-        <v>/hap-core/sys/user-info</v>
+        <f t="shared" si="9"/>
+        <v>DATA_PERMISSION_TABLE</v>
+      </c>
+      <c r="G136" s="40" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="137" ht="15.75" spans="5:7">
@@ -21068,23 +21073,38 @@
         <v>96</v>
       </c>
       <c r="F137" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>DATA_PERMISSION_TABLE</v>
+      </c>
+      <c r="G137" s="40" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="138" ht="15.75" spans="5:7">
+      <c r="E138" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F138" s="40" t="str">
+        <f>$F$30</f>
+        <v>USER_INFO</v>
+      </c>
+      <c r="G138" s="40" t="str">
+        <f>PERMISSION!F24</f>
+        <v>/hap-core/sys/user-info</v>
+      </c>
+    </row>
+    <row r="139" ht="15.75" spans="5:7">
+      <c r="E139" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F139" s="40" t="str">
         <f>$F$31</f>
         <v>USER_PREFERENCE</v>
       </c>
-      <c r="G137" s="40" t="str">
+      <c r="G139" s="40" t="str">
         <f>PERMISSION!F25</f>
         <v>/hap-core/sys/preferences</v>
       </c>
-    </row>
-    <row r="138" ht="15.75" spans="5:7">
-      <c r="E138" s="11"/>
-      <c r="F138" s="40"/>
-      <c r="G138" s="40"/>
-    </row>
-    <row r="139" ht="15.75" spans="5:7">
-      <c r="E139" s="11"/>
-      <c r="F139" s="40"/>
-      <c r="G139" s="40"/>
     </row>
     <row r="140" ht="15.75" spans="5:7">
       <c r="E140" s="11"/>
@@ -21638,10 +21658,12 @@
     </row>
     <row r="250" ht="15.75" spans="5:7">
       <c r="E250" s="11"/>
+      <c r="F250" s="40"/>
       <c r="G250" s="40"/>
     </row>
     <row r="251" ht="15.75" spans="5:7">
       <c r="E251" s="11"/>
+      <c r="F251" s="40"/>
       <c r="G251" s="40"/>
     </row>
     <row r="252" ht="15.75" spans="5:7">
@@ -21652,11 +21674,13 @@
       <c r="E253" s="11"/>
       <c r="G253" s="40"/>
     </row>
-    <row r="254" ht="15.75" spans="5:5">
+    <row r="254" ht="15.75" spans="5:7">
       <c r="E254" s="11"/>
-    </row>
-    <row r="255" ht="15.75" spans="5:5">
+      <c r="G254" s="40"/>
+    </row>
+    <row r="255" ht="15.75" spans="5:7">
       <c r="E255" s="11"/>
+      <c r="G255" s="40"/>
     </row>
     <row r="256" ht="15.75" spans="5:5">
       <c r="E256" s="11"/>
@@ -22035,6 +22059,12 @@
     </row>
     <row r="381" ht="15.75" spans="5:5">
       <c r="E381" s="11"/>
+    </row>
+    <row r="382" ht="15.75" spans="5:5">
+      <c r="E382" s="11"/>
+    </row>
+    <row r="383" ht="15.75" spans="5:5">
+      <c r="E383" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -22089,12 +22119,12 @@
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" ht="15.75" spans="4:7">
       <c r="D7" s="8" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>50</v>
@@ -22103,7 +22133,7 @@
         <v>91</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="4:7">
@@ -22419,22 +22449,22 @@
     </row>
     <row r="7" ht="15.75" spans="4:13">
       <c r="D7" s="8" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>52</v>
@@ -22443,15 +22473,15 @@
         <v>53</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="5:13">
       <c r="E8" s="39" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F8">
         <v>1000</v>
@@ -22462,24 +22492,24 @@
         <v>首席执行官</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J8" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K8" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="L8" t="s">
         <v>326</v>
       </c>
-      <c r="L8" t="s">
-        <v>324</v>
-      </c>
       <c r="M8" s="12" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="5:13">
       <c r="E9" s="39" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F9">
         <v>100000</v>
@@ -22493,24 +22523,24 @@
         <v>首席执行官</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J9" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L9" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10" ht="15.75" spans="5:13">
       <c r="E10" s="39" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F10">
         <v>100020</v>
@@ -22524,24 +22554,24 @@
         <v>技术总监</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J10" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L10" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" ht="15.75" spans="5:13">
       <c r="E11" s="39" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F11">
         <v>100040</v>
@@ -22555,24 +22585,24 @@
         <v>研发总监</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J11" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L11" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" ht="15.75" spans="5:13">
       <c r="E12" s="39" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F12">
         <v>100050</v>
@@ -22586,16 +22616,16 @@
         <v>人事总监</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J12" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K12" s="12" t="s">
         <v>159</v>
       </c>
       <c r="L12" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="M12" s="12" t="s">
         <v>159</v>
@@ -22603,7 +22633,7 @@
     </row>
     <row r="13" ht="15.75" spans="5:13">
       <c r="E13" s="39" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F13">
         <v>100060</v>
@@ -22617,24 +22647,24 @@
         <v>市场部总监</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J13" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="L13" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" ht="15.75" spans="5:13">
       <c r="E14" s="39" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F14">
         <v>100070</v>
@@ -22648,24 +22678,24 @@
         <v>销售总监</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J14" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L14" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15" ht="15.75" spans="5:13">
       <c r="E15" s="39" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F15">
         <v>100080</v>
@@ -22679,19 +22709,19 @@
         <v>财务总监</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J15" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="L15" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -22742,30 +22772,30 @@
     </row>
     <row r="6" spans="7:8">
       <c r="G6" s="38" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7" ht="15.75" spans="4:13">
       <c r="D7" s="8" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>52</v>
@@ -22774,10 +22804,10 @@
         <v>53</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="5:13">
@@ -22793,7 +22823,7 @@
         <v>汉得信息</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J8" t="s">
         <v>58</v>
@@ -22810,10 +22840,10 @@
     </row>
     <row r="9" ht="15.75" spans="5:13">
       <c r="E9" s="39" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G9" s="40" t="str">
         <f>$E$8</f>
@@ -22824,27 +22854,27 @@
         <v>汉得信息</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J9" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L9" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10" ht="15.75" spans="5:13">
       <c r="E10" s="39" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="G10" s="40" t="str">
         <f>$E$9</f>
@@ -22855,27 +22885,27 @@
         <v>技术部</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J10" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L10" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11" ht="15.75" spans="5:13">
       <c r="E11" s="39" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G11" s="40" t="str">
         <f>$E$9</f>
@@ -22886,27 +22916,27 @@
         <v>销售部</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J11" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L11" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12" ht="15.75" spans="5:13">
       <c r="E12" s="39" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G12" s="40" t="str">
         <f>$E$9</f>
@@ -22917,27 +22947,27 @@
         <v>财务部</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J12" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="L12" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" ht="15.75" spans="5:13">
       <c r="E13" s="39" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G13" s="40" t="str">
         <f>$E$9</f>
@@ -22948,24 +22978,24 @@
         <v>市场部</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J13" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="K13" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="L13" t="s">
         <v>367</v>
       </c>
-      <c r="L13" t="s">
-        <v>365</v>
-      </c>
       <c r="M13" s="12" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14" ht="15.75" spans="5:13">
       <c r="E14" s="39" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F14" s="37">
         <v>111428</v>
@@ -22979,24 +23009,24 @@
         <v>人力资源部</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J14" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="L14" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" ht="15.75" spans="5:13">
       <c r="E15" s="39" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F15" s="37">
         <v>101662</v>
@@ -23010,24 +23040,24 @@
         <v>人力资源部</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J15" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="L15" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="16" ht="15.75" spans="5:13">
       <c r="E16" s="39" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F16" s="37">
         <v>115189</v>
@@ -23041,24 +23071,24 @@
         <v>人力资源部</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J16" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="L16" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="17" ht="15.75" spans="5:13">
       <c r="E17" s="39" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F17" s="37">
         <v>110143</v>
@@ -23072,24 +23102,24 @@
         <v>人力资源部</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J17" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="L17" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="18" ht="15.75" spans="5:13">
       <c r="E18" s="39" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F18" s="37">
         <v>115769</v>
@@ -23103,24 +23133,24 @@
         <v>基础研发部</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J18" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="L18" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="19" ht="15.75" spans="5:13">
       <c r="E19" s="39" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F19" s="37">
         <v>115731</v>
@@ -23134,19 +23164,19 @@
         <v>基础研发部</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J19" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="L19" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -23213,37 +23243,37 @@
         <v>170</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>66</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="N7" s="8" t="s">
         <v>70</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="5:15">
@@ -23257,7 +23287,7 @@
         <v>58</v>
       </c>
       <c r="H8" s="35" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="I8" s="12" t="s">
         <v>77</v>
@@ -23266,33 +23296,33 @@
         <v>13764784777</v>
       </c>
       <c r="K8" s="35" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="M8" s="37">
         <v>1</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="5:15">
       <c r="E9" s="11" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G9" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="I9" s="12" t="s">
         <v>77</v>
@@ -23301,33 +23331,33 @@
         <v>139</v>
       </c>
       <c r="K9" s="35" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="M9" s="37">
         <v>37132502</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10" ht="15.75" spans="5:15">
       <c r="E10" s="11" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="H10" s="35" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="I10" s="12" t="s">
         <v>77</v>
@@ -23336,33 +23366,33 @@
         <v>189</v>
       </c>
       <c r="K10" s="35" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="M10" s="37">
         <v>37132503</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" ht="15.75" spans="5:15">
       <c r="E11" s="11" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="G11" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="H11" s="35" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="I11" s="12" t="s">
         <v>77</v>
@@ -23371,33 +23401,33 @@
         <v>13764784776</v>
       </c>
       <c r="K11" s="35" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="M11" s="37">
         <v>37132511</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12" ht="15.75" spans="5:15">
       <c r="E12" s="11" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G12" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="H12" s="35" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="I12" s="12" t="s">
         <v>83</v>
@@ -23406,33 +23436,33 @@
         <v>13876499</v>
       </c>
       <c r="K12" s="35" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="M12" s="37">
         <v>5675453</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="O12" s="12" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="13" ht="15.75" spans="5:15">
       <c r="E13" s="11" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="G13" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="H13" s="35" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="I13" s="12" t="s">
         <v>86</v>
@@ -23441,39 +23471,39 @@
         <v>1889343</v>
       </c>
       <c r="K13" s="35" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="M13" s="37">
         <v>3445562</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="O13" s="12" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="18" ht="15.75" spans="4:9">
       <c r="D18" s="8" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="19" ht="15.75" spans="5:9">
@@ -23489,10 +23519,10 @@
         <v>管理员</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="20" ht="15.75" spans="5:9">
@@ -23508,10 +23538,10 @@
         <v>技术总监</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" ht="15.75" spans="5:9">
@@ -23527,10 +23557,10 @@
         <v>研发总监</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="22" ht="15.75" spans="5:9">
@@ -23546,10 +23576,10 @@
         <v>研发工程师</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="23" ht="15.75" spans="5:9">
@@ -23565,10 +23595,10 @@
         <v>研发工程师</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="24" ht="15.75" spans="5:9">
@@ -23584,10 +23614,10 @@
         <v>人事专员</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="25" ht="15.75" spans="5:9">
@@ -23603,10 +23633,10 @@
         <v>人事主管</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -23664,16 +23694,16 @@
         <v>179</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="1:7">
@@ -23681,16 +23711,16 @@
         <v>42651</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>96</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="5:7">
@@ -23698,10 +23728,10 @@
         <v>96</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="10" ht="15.75" spans="5:7">
@@ -23709,7 +23739,7 @@
         <v>96</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="G10" s="17">
         <v>123456</v>
@@ -23720,7 +23750,7 @@
         <v>96</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G11" s="17">
         <v>8</v>
@@ -23731,10 +23761,10 @@
         <v>96</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="13" ht="15.75" spans="1:7">
@@ -23742,13 +23772,13 @@
         <v>42651</v>
       </c>
       <c r="B13" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>96</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -23759,16 +23789,16 @@
         <v>42703</v>
       </c>
       <c r="B14" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>96</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" ht="15.75" spans="5:7">
@@ -23776,10 +23806,10 @@
         <v>96</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="16" ht="15.75" spans="1:7">
@@ -23787,16 +23817,16 @@
         <v>42725</v>
       </c>
       <c r="B16" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>96</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="17" ht="15.75" spans="1:7">
@@ -23804,16 +23834,16 @@
         <v>42865</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>96</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="18" ht="15.75" spans="5:7">
@@ -23821,10 +23851,10 @@
         <v>96</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="19" ht="15.75" spans="5:7">
@@ -23832,10 +23862,10 @@
         <v>96</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
